--- a/output/ellisjo01.xlsx
+++ b/output/ellisjo01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
   <si>
     <t>Season</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>PS</t>
-  </si>
-  <si>
-    <t>ORtg</t>
-  </si>
-  <si>
-    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -1870,1538 +1864,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:24">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>41</v>
-      </c>
-      <c r="I2">
-        <v>333</v>
-      </c>
-      <c r="J2">
-        <v>7.2</v>
-      </c>
-      <c r="K2">
-        <v>17.7</v>
-      </c>
-      <c r="L2">
-        <v>0.409</v>
-      </c>
-      <c r="M2">
-        <v>2.1</v>
-      </c>
-      <c r="N2">
-        <v>2.7</v>
-      </c>
-      <c r="O2">
-        <v>0.76</v>
-      </c>
-      <c r="R2">
-        <v>12.1</v>
-      </c>
-      <c r="S2">
-        <v>2.9</v>
-      </c>
-      <c r="V2">
-        <v>4.9</v>
-      </c>
-      <c r="W2">
-        <v>16.5</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>24</v>
-      </c>
-      <c r="L3">
-        <v>0.25</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>12</v>
-      </c>
-      <c r="W3">
-        <v>12</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>-327</v>
-      </c>
-      <c r="J4">
-        <v>-1.2</v>
-      </c>
-      <c r="K4">
-        <v>6.300000000000001</v>
-      </c>
-      <c r="L4">
-        <v>-0.159</v>
-      </c>
-      <c r="M4">
-        <v>-2.1</v>
-      </c>
-      <c r="N4">
-        <v>-2.7</v>
-      </c>
-      <c r="R4">
-        <v>-6.1</v>
-      </c>
-      <c r="S4">
-        <v>9.1</v>
-      </c>
-      <c r="V4">
-        <v>7.1</v>
-      </c>
-      <c r="W4">
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>51</v>
-      </c>
-      <c r="I5">
-        <v>624</v>
-      </c>
-      <c r="J5">
-        <v>6.4</v>
-      </c>
-      <c r="K5">
-        <v>17.4</v>
-      </c>
-      <c r="L5">
-        <v>0.368</v>
-      </c>
-      <c r="M5">
-        <v>1.8</v>
-      </c>
-      <c r="N5">
-        <v>2.9</v>
-      </c>
-      <c r="O5">
-        <v>0.64</v>
-      </c>
-      <c r="R5">
-        <v>11.3</v>
-      </c>
-      <c r="S5">
-        <v>2.1</v>
-      </c>
-      <c r="V5">
-        <v>4.8</v>
-      </c>
-      <c r="W5">
-        <v>14.7</v>
-      </c>
-      <c r="X5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>104</v>
-      </c>
-      <c r="J6">
-        <v>4.5</v>
-      </c>
-      <c r="K6">
-        <v>15.2</v>
-      </c>
-      <c r="L6">
-        <v>0.295</v>
-      </c>
-      <c r="M6">
-        <v>2.1</v>
-      </c>
-      <c r="N6">
-        <v>2.4</v>
-      </c>
-      <c r="O6">
-        <v>0.857</v>
-      </c>
-      <c r="R6">
-        <v>6.6</v>
-      </c>
-      <c r="S6">
-        <v>2.4</v>
-      </c>
-      <c r="V6">
-        <v>5.5</v>
-      </c>
-      <c r="W6">
-        <v>11.1</v>
-      </c>
-      <c r="X6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>-520</v>
-      </c>
-      <c r="J7">
-        <v>-1.9</v>
-      </c>
-      <c r="K7">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="L7">
-        <v>-0.07300000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.3</v>
-      </c>
-      <c r="N7">
-        <v>-0.5</v>
-      </c>
-      <c r="O7">
-        <v>0.217</v>
-      </c>
-      <c r="R7">
-        <v>-4.700000000000001</v>
-      </c>
-      <c r="S7">
-        <v>0.2999999999999998</v>
-      </c>
-      <c r="V7">
-        <v>0.7000000000000002</v>
-      </c>
-      <c r="W7">
-        <v>-3.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>74</v>
-      </c>
-      <c r="I8">
-        <v>1731</v>
-      </c>
-      <c r="J8">
-        <v>7.7</v>
-      </c>
-      <c r="K8">
-        <v>19.5</v>
-      </c>
-      <c r="L8">
-        <v>0.395</v>
-      </c>
-      <c r="M8">
-        <v>3.1</v>
-      </c>
-      <c r="N8">
-        <v>4.2</v>
-      </c>
-      <c r="O8">
-        <v>0.731</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
-      </c>
-      <c r="S8">
-        <v>2.7</v>
-      </c>
-      <c r="V8">
-        <v>5.4</v>
-      </c>
-      <c r="W8">
-        <v>18.5</v>
-      </c>
-      <c r="X8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <v>161</v>
-      </c>
-      <c r="J9">
-        <v>5.1</v>
-      </c>
-      <c r="K9">
-        <v>17.7</v>
-      </c>
-      <c r="L9">
-        <v>0.291</v>
-      </c>
-      <c r="M9">
-        <v>3.6</v>
-      </c>
-      <c r="N9">
-        <v>5.6</v>
-      </c>
-      <c r="O9">
-        <v>0.64</v>
-      </c>
-      <c r="R9">
-        <v>11.4</v>
-      </c>
-      <c r="S9">
-        <v>0.7</v>
-      </c>
-      <c r="V9">
-        <v>4.9</v>
-      </c>
-      <c r="W9">
-        <v>13.9</v>
-      </c>
-      <c r="X9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>-1570</v>
-      </c>
-      <c r="J10">
-        <v>-2.600000000000001</v>
-      </c>
-      <c r="K10">
-        <v>-1.800000000000001</v>
-      </c>
-      <c r="L10">
-        <v>-0.104</v>
-      </c>
-      <c r="M10">
-        <v>0.5</v>
-      </c>
-      <c r="N10">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="O10">
-        <v>-0.09099999999999997</v>
-      </c>
-      <c r="R10">
-        <v>1.4</v>
-      </c>
-      <c r="S10">
-        <v>-2</v>
-      </c>
-      <c r="V10">
-        <v>-0.5</v>
-      </c>
-      <c r="W10">
-        <v>-4.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>76</v>
-      </c>
-      <c r="I11">
-        <v>2380</v>
-      </c>
-      <c r="J11">
-        <v>7.6</v>
-      </c>
-      <c r="K11">
-        <v>18.5</v>
-      </c>
-      <c r="L11">
-        <v>0.41</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>4.1</v>
-      </c>
-      <c r="O11">
-        <v>0.741</v>
-      </c>
-      <c r="R11">
-        <v>9</v>
-      </c>
-      <c r="S11">
-        <v>2.1</v>
-      </c>
-      <c r="V11">
-        <v>4.3</v>
-      </c>
-      <c r="W11">
-        <v>18.2</v>
-      </c>
-      <c r="X11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13">
-        <v>80</v>
-      </c>
-      <c r="I13">
-        <v>2275</v>
-      </c>
-      <c r="J13">
-        <v>5.6</v>
-      </c>
-      <c r="K13">
-        <v>14.2</v>
-      </c>
-      <c r="L13">
-        <v>0.396</v>
-      </c>
-      <c r="M13">
-        <v>2.4</v>
-      </c>
-      <c r="N13">
-        <v>3.2</v>
-      </c>
-      <c r="O13">
-        <v>0.7440000000000001</v>
-      </c>
-      <c r="R13">
-        <v>8.1</v>
-      </c>
-      <c r="S13">
-        <v>2.5</v>
-      </c>
-      <c r="V13">
-        <v>4.5</v>
-      </c>
-      <c r="W13">
-        <v>13.7</v>
-      </c>
-      <c r="X13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>91</v>
-      </c>
-      <c r="J14">
-        <v>5.1</v>
-      </c>
-      <c r="K14">
-        <v>16.6</v>
-      </c>
-      <c r="L14">
-        <v>0.31</v>
-      </c>
-      <c r="M14">
-        <v>0.8</v>
-      </c>
-      <c r="N14">
-        <v>1.2</v>
-      </c>
-      <c r="O14">
-        <v>0.667</v>
-      </c>
-      <c r="R14">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>3.2</v>
-      </c>
-      <c r="W14">
-        <v>11.1</v>
-      </c>
-      <c r="X14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>-2184</v>
-      </c>
-      <c r="J15">
-        <v>-0.5</v>
-      </c>
-      <c r="K15">
-        <v>2.400000000000002</v>
-      </c>
-      <c r="L15">
-        <v>-0.08600000000000002</v>
-      </c>
-      <c r="M15">
-        <v>-1.6</v>
-      </c>
-      <c r="N15">
-        <v>-2</v>
-      </c>
-      <c r="O15">
-        <v>-0.07700000000000007</v>
-      </c>
-      <c r="R15">
-        <v>0.2000000000000011</v>
-      </c>
-      <c r="S15">
-        <v>-2.5</v>
-      </c>
-      <c r="V15">
-        <v>-1.3</v>
-      </c>
-      <c r="W15">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <v>78</v>
-      </c>
-      <c r="I16">
-        <v>1462</v>
-      </c>
-      <c r="J16">
-        <v>6.9</v>
-      </c>
-      <c r="K16">
-        <v>16.8</v>
-      </c>
-      <c r="L16">
-        <v>0.411</v>
-      </c>
-      <c r="M16">
-        <v>2.3</v>
-      </c>
-      <c r="N16">
-        <v>3.3</v>
-      </c>
-      <c r="O16">
-        <v>0.72</v>
-      </c>
-      <c r="R16">
-        <v>9.6</v>
-      </c>
-      <c r="S16">
-        <v>2.4</v>
-      </c>
-      <c r="V16">
-        <v>5.5</v>
-      </c>
-      <c r="W16">
-        <v>16.1</v>
-      </c>
-      <c r="X16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>113</v>
-      </c>
-      <c r="J17">
-        <v>6.7</v>
-      </c>
-      <c r="K17">
-        <v>20.1</v>
-      </c>
-      <c r="L17">
-        <v>0.333</v>
-      </c>
-      <c r="M17">
-        <v>3.8</v>
-      </c>
-      <c r="N17">
-        <v>5.4</v>
-      </c>
-      <c r="O17">
-        <v>0.706</v>
-      </c>
-      <c r="R17">
-        <v>6.7</v>
-      </c>
-      <c r="S17">
-        <v>1.3</v>
-      </c>
-      <c r="V17">
-        <v>2.9</v>
-      </c>
-      <c r="W17">
-        <v>17.2</v>
-      </c>
-      <c r="X17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <v>-1349</v>
-      </c>
-      <c r="J18">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="K18">
-        <v>3.300000000000001</v>
-      </c>
-      <c r="L18">
-        <v>-0.07800000000000007</v>
-      </c>
-      <c r="M18">
-        <v>1.5</v>
-      </c>
-      <c r="N18">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="O18">
-        <v>-0.01400000000000001</v>
-      </c>
-      <c r="R18">
-        <v>-2.899999999999999</v>
-      </c>
-      <c r="S18">
-        <v>-1.1</v>
-      </c>
-      <c r="V18">
-        <v>-2.6</v>
-      </c>
-      <c r="W18">
-        <v>1.099999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19">
-        <v>74</v>
-      </c>
-      <c r="I19">
-        <v>1054</v>
-      </c>
-      <c r="J19">
-        <v>6.8</v>
-      </c>
-      <c r="K19">
-        <v>16.6</v>
-      </c>
-      <c r="L19">
-        <v>0.409</v>
-      </c>
-      <c r="M19">
-        <v>2.4</v>
-      </c>
-      <c r="N19">
-        <v>3.2</v>
-      </c>
-      <c r="O19">
-        <v>0.742</v>
-      </c>
-      <c r="R19">
-        <v>9.6</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="V19">
-        <v>4.9</v>
-      </c>
-      <c r="W19">
-        <v>16</v>
-      </c>
-      <c r="X19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>100</v>
-      </c>
-      <c r="J20">
-        <v>4.3</v>
-      </c>
-      <c r="K20">
-        <v>13.7</v>
-      </c>
-      <c r="L20">
-        <v>0.316</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>6.5</v>
-      </c>
-      <c r="S20">
-        <v>2.5</v>
-      </c>
-      <c r="V20">
-        <v>6.5</v>
-      </c>
-      <c r="W20">
-        <v>8.6</v>
-      </c>
-      <c r="X20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <v>-954</v>
-      </c>
-      <c r="J21">
-        <v>-2.5</v>
-      </c>
-      <c r="K21">
-        <v>-2.900000000000002</v>
-      </c>
-      <c r="L21">
-        <v>-0.09299999999999997</v>
-      </c>
-      <c r="M21">
-        <v>-2.4</v>
-      </c>
-      <c r="N21">
-        <v>-3.2</v>
-      </c>
-      <c r="R21">
-        <v>-3.1</v>
-      </c>
-      <c r="S21">
-        <v>-0.5</v>
-      </c>
-      <c r="V21">
-        <v>1.6</v>
-      </c>
-      <c r="W21">
-        <v>-7.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="I22">
-        <v>515</v>
-      </c>
-      <c r="J22">
-        <v>4.3</v>
-      </c>
-      <c r="K22">
-        <v>13.3</v>
-      </c>
-      <c r="L22">
-        <v>0.321</v>
-      </c>
-      <c r="M22">
-        <v>1.3</v>
-      </c>
-      <c r="N22">
-        <v>2.2</v>
-      </c>
-      <c r="O22">
-        <v>0.581</v>
-      </c>
-      <c r="P22">
-        <v>2.6</v>
-      </c>
-      <c r="Q22">
-        <v>5.9</v>
-      </c>
-      <c r="R22">
-        <v>8.5</v>
-      </c>
-      <c r="S22">
-        <v>2.6</v>
-      </c>
-      <c r="T22">
-        <v>2.3</v>
-      </c>
-      <c r="U22">
-        <v>0.6</v>
-      </c>
-      <c r="V22">
-        <v>5.3</v>
-      </c>
-      <c r="W22">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24">
-        <v>524</v>
-      </c>
-      <c r="I24">
-        <v>10374</v>
-      </c>
-      <c r="J24">
-        <v>6.8</v>
-      </c>
-      <c r="K24">
-        <v>16.9</v>
-      </c>
-      <c r="L24">
-        <v>0.398</v>
-      </c>
-      <c r="M24">
-        <v>2.5</v>
-      </c>
-      <c r="N24">
-        <v>3.5</v>
-      </c>
-      <c r="O24">
-        <v>0.727</v>
-      </c>
-      <c r="P24">
-        <v>2.6</v>
-      </c>
-      <c r="Q24">
-        <v>5.9</v>
-      </c>
-      <c r="R24">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S24">
-        <v>2.5</v>
-      </c>
-      <c r="T24">
-        <v>2.3</v>
-      </c>
-      <c r="U24">
-        <v>0.6</v>
-      </c>
-      <c r="V24">
-        <v>4.8</v>
-      </c>
-      <c r="W24">
-        <v>16</v>
-      </c>
-      <c r="X24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25">
-        <v>38</v>
-      </c>
-      <c r="I25">
-        <v>575</v>
-      </c>
-      <c r="J25">
-        <v>5.2</v>
-      </c>
-      <c r="K25">
-        <v>16.9</v>
-      </c>
-      <c r="L25">
-        <v>0.307</v>
-      </c>
-      <c r="M25">
-        <v>2.3</v>
-      </c>
-      <c r="N25">
-        <v>3.3</v>
-      </c>
-      <c r="O25">
-        <v>0.6920000000000001</v>
-      </c>
-      <c r="R25">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="S25">
-        <v>1.4</v>
-      </c>
-      <c r="V25">
-        <v>4.7</v>
-      </c>
-      <c r="W25">
-        <v>12.6</v>
-      </c>
-      <c r="X25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="I26">
-        <v>-9799</v>
-      </c>
-      <c r="J26">
-        <v>-1.6</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>-0.09099999999999997</v>
-      </c>
-      <c r="M26">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="N26">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="O26">
-        <v>-0.03499999999999992</v>
-      </c>
-      <c r="R26">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="S26">
-        <v>-1.1</v>
-      </c>
-      <c r="V26">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="W26">
-        <v>-3.4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>515</v>
-      </c>
-      <c r="J2">
-        <v>5.2</v>
-      </c>
-      <c r="K2">
-        <v>16.3</v>
-      </c>
-      <c r="L2">
-        <v>0.321</v>
-      </c>
-      <c r="M2">
-        <v>1.5</v>
-      </c>
-      <c r="N2">
-        <v>2.7</v>
-      </c>
-      <c r="O2">
-        <v>0.581</v>
-      </c>
-      <c r="P2">
-        <v>3.2</v>
-      </c>
-      <c r="Q2">
-        <v>7.3</v>
-      </c>
-      <c r="R2">
-        <v>10.4</v>
-      </c>
-      <c r="S2">
-        <v>3.2</v>
-      </c>
-      <c r="T2">
-        <v>2.8</v>
-      </c>
-      <c r="U2">
-        <v>0.8</v>
-      </c>
-      <c r="V2">
-        <v>6.5</v>
-      </c>
-      <c r="W2">
-        <v>12</v>
-      </c>
-      <c r="Z2">
-        <v>96</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>515</v>
-      </c>
-      <c r="J4">
-        <v>5.2</v>
-      </c>
-      <c r="K4">
-        <v>16.3</v>
-      </c>
-      <c r="L4">
-        <v>0.321</v>
-      </c>
-      <c r="M4">
-        <v>1.5</v>
-      </c>
-      <c r="N4">
-        <v>2.7</v>
-      </c>
-      <c r="O4">
-        <v>0.581</v>
-      </c>
-      <c r="P4">
-        <v>3.2</v>
-      </c>
-      <c r="Q4">
-        <v>7.3</v>
-      </c>
-      <c r="R4">
-        <v>10.4</v>
-      </c>
-      <c r="S4">
-        <v>3.2</v>
-      </c>
-      <c r="T4">
-        <v>2.8</v>
-      </c>
-      <c r="U4">
-        <v>0.8</v>
-      </c>
-      <c r="V4">
-        <v>6.5</v>
-      </c>
-      <c r="W4">
-        <v>12</v>
-      </c>
-      <c r="Z4">
-        <v>96</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3437,61 +1917,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>22</v>

--- a/output/ellisjo01.xlsx
+++ b/output/ellisjo01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="66">
   <si>
     <t>Season</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -1864,24 +1870,1538 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <v>333</v>
+      </c>
+      <c r="J2">
+        <v>7.2</v>
+      </c>
+      <c r="K2">
+        <v>17.7</v>
+      </c>
+      <c r="L2">
+        <v>0.409</v>
+      </c>
+      <c r="M2">
+        <v>2.1</v>
+      </c>
+      <c r="N2">
+        <v>2.7</v>
+      </c>
+      <c r="O2">
+        <v>0.76</v>
+      </c>
+      <c r="R2">
+        <v>12.1</v>
+      </c>
+      <c r="S2">
+        <v>2.9</v>
+      </c>
+      <c r="V2">
+        <v>4.9</v>
+      </c>
+      <c r="W2">
+        <v>16.5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>0.25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>-327</v>
+      </c>
+      <c r="J4">
+        <v>-1.2</v>
+      </c>
+      <c r="K4">
+        <v>6.300000000000001</v>
+      </c>
+      <c r="L4">
+        <v>-0.159</v>
+      </c>
+      <c r="M4">
+        <v>-2.1</v>
+      </c>
+      <c r="N4">
+        <v>-2.7</v>
+      </c>
+      <c r="R4">
+        <v>-6.1</v>
+      </c>
+      <c r="S4">
+        <v>9.1</v>
+      </c>
+      <c r="V4">
+        <v>7.1</v>
+      </c>
+      <c r="W4">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>624</v>
+      </c>
+      <c r="J5">
+        <v>6.4</v>
+      </c>
+      <c r="K5">
+        <v>17.4</v>
+      </c>
+      <c r="L5">
+        <v>0.368</v>
+      </c>
+      <c r="M5">
+        <v>1.8</v>
+      </c>
+      <c r="N5">
+        <v>2.9</v>
+      </c>
+      <c r="O5">
+        <v>0.64</v>
+      </c>
+      <c r="R5">
+        <v>11.3</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="V5">
+        <v>4.8</v>
+      </c>
+      <c r="W5">
+        <v>14.7</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>104</v>
+      </c>
+      <c r="J6">
+        <v>4.5</v>
+      </c>
+      <c r="K6">
+        <v>15.2</v>
+      </c>
+      <c r="L6">
+        <v>0.295</v>
+      </c>
+      <c r="M6">
+        <v>2.1</v>
+      </c>
+      <c r="N6">
+        <v>2.4</v>
+      </c>
+      <c r="O6">
+        <v>0.857</v>
+      </c>
+      <c r="R6">
+        <v>6.6</v>
+      </c>
+      <c r="S6">
+        <v>2.4</v>
+      </c>
+      <c r="V6">
+        <v>5.5</v>
+      </c>
+      <c r="W6">
+        <v>11.1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>-520</v>
+      </c>
+      <c r="J7">
+        <v>-1.9</v>
+      </c>
+      <c r="K7">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="L7">
+        <v>-0.07300000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.3</v>
+      </c>
+      <c r="N7">
+        <v>-0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.217</v>
+      </c>
+      <c r="R7">
+        <v>-4.700000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="W7">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>74</v>
+      </c>
+      <c r="I8">
+        <v>1731</v>
+      </c>
+      <c r="J8">
+        <v>7.7</v>
+      </c>
+      <c r="K8">
+        <v>19.5</v>
+      </c>
+      <c r="L8">
+        <v>0.395</v>
+      </c>
+      <c r="M8">
+        <v>3.1</v>
+      </c>
+      <c r="N8">
+        <v>4.2</v>
+      </c>
+      <c r="O8">
+        <v>0.731</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>2.7</v>
+      </c>
+      <c r="V8">
+        <v>5.4</v>
+      </c>
+      <c r="W8">
+        <v>18.5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>161</v>
+      </c>
+      <c r="J9">
+        <v>5.1</v>
+      </c>
+      <c r="K9">
+        <v>17.7</v>
+      </c>
+      <c r="L9">
+        <v>0.291</v>
+      </c>
+      <c r="M9">
+        <v>3.6</v>
+      </c>
+      <c r="N9">
+        <v>5.6</v>
+      </c>
+      <c r="O9">
+        <v>0.64</v>
+      </c>
+      <c r="R9">
+        <v>11.4</v>
+      </c>
+      <c r="S9">
+        <v>0.7</v>
+      </c>
+      <c r="V9">
+        <v>4.9</v>
+      </c>
+      <c r="W9">
+        <v>13.9</v>
+      </c>
+      <c r="X9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>-1570</v>
+      </c>
+      <c r="J10">
+        <v>-2.600000000000001</v>
+      </c>
+      <c r="K10">
+        <v>-1.800000000000001</v>
+      </c>
+      <c r="L10">
+        <v>-0.104</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="O10">
+        <v>-0.09099999999999997</v>
+      </c>
+      <c r="R10">
+        <v>1.4</v>
+      </c>
+      <c r="S10">
+        <v>-2</v>
+      </c>
+      <c r="V10">
+        <v>-0.5</v>
+      </c>
+      <c r="W10">
+        <v>-4.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>2380</v>
+      </c>
+      <c r="J11">
+        <v>7.6</v>
+      </c>
+      <c r="K11">
+        <v>18.5</v>
+      </c>
+      <c r="L11">
+        <v>0.41</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>4.1</v>
+      </c>
+      <c r="O11">
+        <v>0.741</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>2.1</v>
+      </c>
+      <c r="V11">
+        <v>4.3</v>
+      </c>
+      <c r="W11">
+        <v>18.2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>2275</v>
+      </c>
+      <c r="J13">
+        <v>5.6</v>
+      </c>
+      <c r="K13">
+        <v>14.2</v>
+      </c>
+      <c r="L13">
+        <v>0.396</v>
+      </c>
+      <c r="M13">
+        <v>2.4</v>
+      </c>
+      <c r="N13">
+        <v>3.2</v>
+      </c>
+      <c r="O13">
+        <v>0.7440000000000001</v>
+      </c>
+      <c r="R13">
+        <v>8.1</v>
+      </c>
+      <c r="S13">
+        <v>2.5</v>
+      </c>
+      <c r="V13">
+        <v>4.5</v>
+      </c>
+      <c r="W13">
+        <v>13.7</v>
+      </c>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>91</v>
+      </c>
+      <c r="J14">
+        <v>5.1</v>
+      </c>
+      <c r="K14">
+        <v>16.6</v>
+      </c>
+      <c r="L14">
+        <v>0.31</v>
+      </c>
+      <c r="M14">
+        <v>0.8</v>
+      </c>
+      <c r="N14">
+        <v>1.2</v>
+      </c>
+      <c r="O14">
+        <v>0.667</v>
+      </c>
+      <c r="R14">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>3.2</v>
+      </c>
+      <c r="W14">
+        <v>11.1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>-2184</v>
+      </c>
+      <c r="J15">
+        <v>-0.5</v>
+      </c>
+      <c r="K15">
+        <v>2.400000000000002</v>
+      </c>
+      <c r="L15">
+        <v>-0.08600000000000002</v>
+      </c>
+      <c r="M15">
+        <v>-1.6</v>
+      </c>
+      <c r="N15">
+        <v>-2</v>
+      </c>
+      <c r="O15">
+        <v>-0.07700000000000007</v>
+      </c>
+      <c r="R15">
+        <v>0.2000000000000011</v>
+      </c>
+      <c r="S15">
+        <v>-2.5</v>
+      </c>
+      <c r="V15">
+        <v>-1.3</v>
+      </c>
+      <c r="W15">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>78</v>
+      </c>
+      <c r="I16">
+        <v>1462</v>
+      </c>
+      <c r="J16">
+        <v>6.9</v>
+      </c>
+      <c r="K16">
+        <v>16.8</v>
+      </c>
+      <c r="L16">
+        <v>0.411</v>
+      </c>
+      <c r="M16">
+        <v>2.3</v>
+      </c>
+      <c r="N16">
+        <v>3.3</v>
+      </c>
+      <c r="O16">
+        <v>0.72</v>
+      </c>
+      <c r="R16">
+        <v>9.6</v>
+      </c>
+      <c r="S16">
+        <v>2.4</v>
+      </c>
+      <c r="V16">
+        <v>5.5</v>
+      </c>
+      <c r="W16">
+        <v>16.1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>113</v>
+      </c>
+      <c r="J17">
+        <v>6.7</v>
+      </c>
+      <c r="K17">
+        <v>20.1</v>
+      </c>
+      <c r="L17">
+        <v>0.333</v>
+      </c>
+      <c r="M17">
+        <v>3.8</v>
+      </c>
+      <c r="N17">
+        <v>5.4</v>
+      </c>
+      <c r="O17">
+        <v>0.706</v>
+      </c>
+      <c r="R17">
+        <v>6.7</v>
+      </c>
+      <c r="S17">
+        <v>1.3</v>
+      </c>
+      <c r="V17">
+        <v>2.9</v>
+      </c>
+      <c r="W17">
+        <v>17.2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>-1349</v>
+      </c>
+      <c r="J18">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="K18">
+        <v>3.300000000000001</v>
+      </c>
+      <c r="L18">
+        <v>-0.07800000000000007</v>
+      </c>
+      <c r="M18">
+        <v>1.5</v>
+      </c>
+      <c r="N18">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="O18">
+        <v>-0.01400000000000001</v>
+      </c>
+      <c r="R18">
+        <v>-2.899999999999999</v>
+      </c>
+      <c r="S18">
+        <v>-1.1</v>
+      </c>
+      <c r="V18">
+        <v>-2.6</v>
+      </c>
+      <c r="W18">
+        <v>1.099999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>1054</v>
+      </c>
+      <c r="J19">
+        <v>6.8</v>
+      </c>
+      <c r="K19">
+        <v>16.6</v>
+      </c>
+      <c r="L19">
+        <v>0.409</v>
+      </c>
+      <c r="M19">
+        <v>2.4</v>
+      </c>
+      <c r="N19">
+        <v>3.2</v>
+      </c>
+      <c r="O19">
+        <v>0.742</v>
+      </c>
+      <c r="R19">
+        <v>9.6</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>4.9</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>4.3</v>
+      </c>
+      <c r="K20">
+        <v>13.7</v>
+      </c>
+      <c r="L20">
+        <v>0.316</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>6.5</v>
+      </c>
+      <c r="S20">
+        <v>2.5</v>
+      </c>
+      <c r="V20">
+        <v>6.5</v>
+      </c>
+      <c r="W20">
+        <v>8.6</v>
+      </c>
+      <c r="X20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>-954</v>
+      </c>
+      <c r="J21">
+        <v>-2.5</v>
+      </c>
+      <c r="K21">
+        <v>-2.900000000000002</v>
+      </c>
+      <c r="L21">
+        <v>-0.09299999999999997</v>
+      </c>
+      <c r="M21">
+        <v>-2.4</v>
+      </c>
+      <c r="N21">
+        <v>-3.2</v>
+      </c>
+      <c r="R21">
+        <v>-3.1</v>
+      </c>
+      <c r="S21">
+        <v>-0.5</v>
+      </c>
+      <c r="V21">
+        <v>1.6</v>
+      </c>
+      <c r="W21">
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>515</v>
+      </c>
+      <c r="J22">
+        <v>4.3</v>
+      </c>
+      <c r="K22">
+        <v>13.3</v>
+      </c>
+      <c r="L22">
+        <v>0.321</v>
+      </c>
+      <c r="M22">
+        <v>1.3</v>
+      </c>
+      <c r="N22">
+        <v>2.2</v>
+      </c>
+      <c r="O22">
+        <v>0.581</v>
+      </c>
+      <c r="P22">
+        <v>2.6</v>
+      </c>
+      <c r="Q22">
+        <v>5.9</v>
+      </c>
+      <c r="R22">
+        <v>8.5</v>
+      </c>
+      <c r="S22">
+        <v>2.6</v>
+      </c>
+      <c r="T22">
+        <v>2.3</v>
+      </c>
+      <c r="U22">
+        <v>0.6</v>
+      </c>
+      <c r="V22">
+        <v>5.3</v>
+      </c>
+      <c r="W22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>524</v>
+      </c>
+      <c r="I24">
+        <v>10374</v>
+      </c>
+      <c r="J24">
+        <v>6.8</v>
+      </c>
+      <c r="K24">
+        <v>16.9</v>
+      </c>
+      <c r="L24">
+        <v>0.398</v>
+      </c>
+      <c r="M24">
+        <v>2.5</v>
+      </c>
+      <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24">
+        <v>0.727</v>
+      </c>
+      <c r="P24">
+        <v>2.6</v>
+      </c>
+      <c r="Q24">
+        <v>5.9</v>
+      </c>
+      <c r="R24">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="S24">
+        <v>2.5</v>
+      </c>
+      <c r="T24">
+        <v>2.3</v>
+      </c>
+      <c r="U24">
+        <v>0.6</v>
+      </c>
+      <c r="V24">
+        <v>4.8</v>
+      </c>
+      <c r="W24">
+        <v>16</v>
+      </c>
+      <c r="X24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="I25">
+        <v>575</v>
+      </c>
+      <c r="J25">
+        <v>5.2</v>
+      </c>
+      <c r="K25">
+        <v>16.9</v>
+      </c>
+      <c r="L25">
+        <v>0.307</v>
+      </c>
+      <c r="M25">
+        <v>2.3</v>
+      </c>
+      <c r="N25">
+        <v>3.3</v>
+      </c>
+      <c r="O25">
+        <v>0.6920000000000001</v>
+      </c>
+      <c r="R25">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S25">
+        <v>1.4</v>
+      </c>
+      <c r="V25">
+        <v>4.7</v>
+      </c>
+      <c r="W25">
+        <v>12.6</v>
+      </c>
+      <c r="X25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>-9799</v>
+      </c>
+      <c r="J26">
+        <v>-1.6</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>-0.09099999999999997</v>
+      </c>
+      <c r="M26">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="N26">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="O26">
+        <v>-0.03499999999999992</v>
+      </c>
+      <c r="R26">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="S26">
+        <v>-1.1</v>
+      </c>
+      <c r="V26">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="W26">
+        <v>-3.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>515</v>
+      </c>
+      <c r="J2">
+        <v>5.2</v>
+      </c>
+      <c r="K2">
+        <v>16.3</v>
+      </c>
+      <c r="L2">
+        <v>0.321</v>
+      </c>
+      <c r="M2">
+        <v>1.5</v>
+      </c>
+      <c r="N2">
+        <v>2.7</v>
+      </c>
+      <c r="O2">
+        <v>0.581</v>
+      </c>
+      <c r="P2">
+        <v>3.2</v>
+      </c>
+      <c r="Q2">
+        <v>7.3</v>
+      </c>
+      <c r="R2">
+        <v>10.4</v>
+      </c>
+      <c r="S2">
+        <v>3.2</v>
+      </c>
+      <c r="T2">
+        <v>2.8</v>
+      </c>
+      <c r="U2">
+        <v>0.8</v>
+      </c>
+      <c r="V2">
+        <v>6.5</v>
+      </c>
+      <c r="W2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>96</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>515</v>
+      </c>
+      <c r="J4">
+        <v>5.2</v>
+      </c>
+      <c r="K4">
+        <v>16.3</v>
+      </c>
+      <c r="L4">
+        <v>0.321</v>
+      </c>
+      <c r="M4">
+        <v>1.5</v>
+      </c>
+      <c r="N4">
+        <v>2.7</v>
+      </c>
+      <c r="O4">
+        <v>0.581</v>
+      </c>
+      <c r="P4">
+        <v>3.2</v>
+      </c>
+      <c r="Q4">
+        <v>7.3</v>
+      </c>
+      <c r="R4">
+        <v>10.4</v>
+      </c>
+      <c r="S4">
+        <v>3.2</v>
+      </c>
+      <c r="T4">
+        <v>2.8</v>
+      </c>
+      <c r="U4">
+        <v>0.8</v>
+      </c>
+      <c r="V4">
+        <v>6.5</v>
+      </c>
+      <c r="W4">
+        <v>12</v>
+      </c>
+      <c r="Z4">
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1917,61 +3437,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>22</v>

--- a/output/ellisjo01.xlsx
+++ b/output/ellisjo01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -768,9 +768,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-6.1</v>
-      </c>
       <c r="J4">
         <v>-1.3</v>
       </c>
@@ -921,9 +918,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-0.5999999999999996</v>
-      </c>
       <c r="J7">
         <v>-0.8000000000000003</v>
       </c>
@@ -1077,9 +1071,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>3.400000000000002</v>
-      </c>
       <c r="J10">
         <v>-1.2</v>
       </c>
@@ -1216,7 +1207,7 @@
         <v>2.5</v>
       </c>
       <c r="O13">
-        <v>0.7440000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="R13">
         <v>6.4</v>
@@ -1297,9 +1288,6 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="I15">
-        <v>-10.2</v>
-      </c>
       <c r="J15">
         <v>-1.9</v>
       </c>
@@ -1316,7 +1304,7 @@
         <v>-1.9</v>
       </c>
       <c r="O15">
-        <v>-0.07700000000000007</v>
+        <v>-0.07699999999999996</v>
       </c>
       <c r="R15">
         <v>-2.2</v>
@@ -1453,9 +1441,6 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="I18">
-        <v>3.900000000000002</v>
-      </c>
       <c r="J18">
         <v>0.6000000000000001</v>
       </c>
@@ -1463,7 +1448,7 @@
         <v>3.9</v>
       </c>
       <c r="L18">
-        <v>-0.07800000000000007</v>
+        <v>-0.07799999999999996</v>
       </c>
       <c r="M18">
         <v>1.2</v>
@@ -1606,9 +1591,6 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="I21">
-        <v>-4.199999999999999</v>
-      </c>
       <c r="J21">
         <v>-1.5</v>
       </c>
@@ -1807,7 +1789,7 @@
         <v>1.4</v>
       </c>
       <c r="O25">
-        <v>0.6920000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R25">
         <v>3.4</v>
@@ -1829,9 +1811,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-4.700000000000001</v>
-      </c>
       <c r="J26">
         <v>-1.5</v>
       </c>
@@ -1839,7 +1818,7 @@
         <v>-2.200000000000001</v>
       </c>
       <c r="L26">
-        <v>-0.09099999999999997</v>
+        <v>-0.09100000000000003</v>
       </c>
       <c r="M26">
         <v>-0.4999999999999999</v>
@@ -1848,7 +1827,7 @@
         <v>-0.5</v>
       </c>
       <c r="O26">
-        <v>-0.03499999999999992</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="R26">
         <v>-1.7</v>
@@ -2066,9 +2045,6 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>-327</v>
-      </c>
       <c r="J4">
         <v>-1.2</v>
       </c>
@@ -2219,9 +2195,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>-520</v>
-      </c>
       <c r="J7">
         <v>-1.9</v>
       </c>
@@ -2375,9 +2348,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>-1570</v>
-      </c>
       <c r="J10">
         <v>-2.600000000000001</v>
       </c>
@@ -2514,7 +2484,7 @@
         <v>3.2</v>
       </c>
       <c r="O13">
-        <v>0.7440000000000001</v>
+        <v>0.744</v>
       </c>
       <c r="R13">
         <v>8.1</v>
@@ -2595,9 +2565,6 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="I15">
-        <v>-2184</v>
-      </c>
       <c r="J15">
         <v>-0.5</v>
       </c>
@@ -2614,7 +2581,7 @@
         <v>-2</v>
       </c>
       <c r="O15">
-        <v>-0.07700000000000007</v>
+        <v>-0.07699999999999996</v>
       </c>
       <c r="R15">
         <v>0.2000000000000011</v>
@@ -2751,9 +2718,6 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="I18">
-        <v>-1349</v>
-      </c>
       <c r="J18">
         <v>-0.2000000000000002</v>
       </c>
@@ -2761,7 +2725,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="L18">
-        <v>-0.07800000000000007</v>
+        <v>-0.07799999999999996</v>
       </c>
       <c r="M18">
         <v>1.5</v>
@@ -2904,9 +2868,6 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="I21">
-        <v>-954</v>
-      </c>
       <c r="J21">
         <v>-2.5</v>
       </c>
@@ -3105,7 +3066,7 @@
         <v>3.3</v>
       </c>
       <c r="O25">
-        <v>0.6920000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R25">
         <v>8.199999999999999</v>
@@ -3127,9 +3088,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="I26">
-        <v>-9799</v>
-      </c>
       <c r="J26">
         <v>-1.6</v>
       </c>
@@ -3137,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.09099999999999997</v>
+        <v>-0.09100000000000003</v>
       </c>
       <c r="M26">
         <v>-0.2000000000000002</v>
@@ -3146,7 +3104,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="O26">
-        <v>-0.03499999999999992</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="R26">
         <v>-1.100000000000001</v>
@@ -3526,7 +3484,7 @@
         <v>13.1</v>
       </c>
       <c r="J2">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="K2">
         <v>0.152</v>
@@ -3544,7 +3502,7 @@
         <v>0.4</v>
       </c>
       <c r="V2">
-        <v>0.05599999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="AB2" t="s">
         <v>44</v>
@@ -3607,14 +3565,11 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>-327</v>
-      </c>
       <c r="I4">
         <v>-8.899999999999999</v>
       </c>
       <c r="J4">
-        <v>-0.1870000000000001</v>
+        <v>-0.187</v>
       </c>
       <c r="K4">
         <v>-0.152</v>
@@ -3745,9 +3700,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>-520</v>
-      </c>
       <c r="I7">
         <v>-5</v>
       </c>
@@ -3770,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>-0.099</v>
+        <v>-0.09899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3883,9 +3835,6 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="H10">
-        <v>-1570</v>
-      </c>
       <c r="I10">
         <v>-5.8</v>
       </c>
@@ -3998,7 +3947,7 @@
         <v>10.7</v>
       </c>
       <c r="J13">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="K13">
         <v>0.226</v>
@@ -4085,14 +4034,11 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="H15">
-        <v>-2184</v>
-      </c>
       <c r="I15">
         <v>-6.299999999999999</v>
       </c>
       <c r="J15">
-        <v>-0.1140000000000001</v>
+        <v>-0.114</v>
       </c>
       <c r="K15">
         <v>-0.155</v>
@@ -4145,7 +4091,7 @@
         <v>12.3</v>
       </c>
       <c r="J16">
-        <v>0.4429999999999999</v>
+        <v>0.443</v>
       </c>
       <c r="K16">
         <v>0.194</v>
@@ -4232,9 +4178,6 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="H18">
-        <v>-1349</v>
-      </c>
       <c r="I18">
         <v>-3.300000000000001</v>
       </c>
@@ -4242,7 +4185,7 @@
         <v>-0.06</v>
       </c>
       <c r="K18">
-        <v>0.07600000000000004</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="N18">
         <v>-3.4</v>
@@ -4379,9 +4322,6 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="H21">
-        <v>-954</v>
-      </c>
       <c r="I21">
         <v>-9.1</v>
       </c>
@@ -4617,9 +4557,6 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="H26">
-        <v>-9799</v>
-      </c>
       <c r="I26">
         <v>-5.8</v>
       </c>
@@ -4627,7 +4564,7 @@
         <v>-0.08900000000000002</v>
       </c>
       <c r="K26">
-        <v>-0.01300000000000001</v>
+        <v>-0.01299999999999998</v>
       </c>
       <c r="N26">
         <v>-1.800000000000001</v>

--- a/output/ellisjo01.xlsx
+++ b/output/ellisjo01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>
